--- a/PerezLab4 new.xlsx
+++ b/PerezLab4 new.xlsx
@@ -5,10 +5,10 @@
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chelseaperez/Documents/cg3fa22cq Folder/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chelseaperez/Documents/cg3fa22cq/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B99E1408-D78E-8C4F-9ACB-CC710159EE73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{968D0945-8408-6C4D-9B21-A83EA0871815}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="680" yWindow="500" windowWidth="28120" windowHeight="16840" xr2:uid="{962CE66A-0444-3340-A574-41F98058AD82}"/>
   </bookViews>
@@ -19,7 +19,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="4" r:id="rId4"/>
+    <pivotCache cacheId="1" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -1839,6 +1839,54 @@
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="4"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="6"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="7"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="8"/>
         <c:spPr>
           <a:solidFill>
             <a:schemeClr val="accent1"/>
@@ -6360,7 +6408,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F370CDB6-0C64-3543-97FB-F5753EDD1AFE}" name="PivotTable1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F370CDB6-0C64-3543-97FB-F5753EDD1AFE}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
   <location ref="C2:D7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="1">
     <pivotField axis="axisRow" dataField="1" showAll="0">
@@ -6399,7 +6447,7 @@
   <dataFields count="1">
     <dataField name="Count of Grades" fld="0" subtotal="count" showDataAs="percentOfTotal" baseField="0" baseItem="0" numFmtId="10"/>
   </dataFields>
-  <chartFormats count="6">
+  <chartFormats count="10">
     <chartFormat chart="0" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
@@ -6462,6 +6510,54 @@
           </reference>
           <reference field="0" count="1" selected="0">
             <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="5">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="6">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="7">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="8">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="3"/>
           </reference>
         </references>
       </pivotArea>
